--- a/teaching/traditional_assets/database/data/taiwan/taiwan_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_insurance_life.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08315</v>
+        <v>0.164</v>
       </c>
       <c r="E2">
-        <v>0.026</v>
+        <v>0.03325</v>
       </c>
       <c r="F2">
         <v>0.15</v>
       </c>
       <c r="G2">
-        <v>0.01129483408365648</v>
+        <v>0.1102069941051012</v>
       </c>
       <c r="H2">
-        <v>0.01129483408365648</v>
+        <v>0.1102069941051012</v>
       </c>
       <c r="I2">
-        <v>0.04382433996365944</v>
+        <v>0.1889553842776999</v>
       </c>
       <c r="J2">
-        <v>0.03684643193686466</v>
+        <v>0.1756436854916816</v>
       </c>
       <c r="K2">
-        <v>4436.6</v>
+        <v>6749</v>
       </c>
       <c r="L2">
-        <v>0.0432697184142564</v>
+        <v>0.05309578561543987</v>
       </c>
       <c r="M2">
-        <v>3645.9</v>
+        <v>2224.8</v>
       </c>
       <c r="N2">
-        <v>0.07360800140517208</v>
+        <v>0.04343378339333265</v>
       </c>
       <c r="O2">
-        <v>0.821777938060677</v>
+        <v>0.3296488368647207</v>
       </c>
       <c r="P2">
-        <v>1008.8</v>
+        <v>2224.8</v>
       </c>
       <c r="Q2">
-        <v>0.02036691950342511</v>
+        <v>0.04343378339333265</v>
       </c>
       <c r="R2">
-        <v>0.2273813280439977</v>
+        <v>0.3296488368647207</v>
       </c>
       <c r="S2">
-        <v>2637.1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.7233056309827478</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>30880.8</v>
+        <v>47277.7</v>
       </c>
       <c r="V2">
-        <v>0.6234603170116673</v>
+        <v>0.9229815628977721</v>
       </c>
       <c r="W2">
-        <v>0.09265605956283716</v>
+        <v>0.1089424622025394</v>
       </c>
       <c r="X2">
-        <v>0.1143459179914963</v>
+        <v>0.09431850771279364</v>
       </c>
       <c r="Y2">
-        <v>-0.02168985842865913</v>
+        <v>0.01462395448974571</v>
       </c>
       <c r="Z2">
-        <v>1.893176270104637</v>
+        <v>1.603648565142802</v>
       </c>
       <c r="AA2">
-        <v>0.04826245079969651</v>
+        <v>0.2832970074793179</v>
       </c>
       <c r="AB2">
-        <v>0.07571500280592257</v>
+        <v>0.06053046292246569</v>
       </c>
       <c r="AC2">
-        <v>-0.02661460185225664</v>
+        <v>0.2208895103543269</v>
       </c>
       <c r="AD2">
-        <v>50557.04</v>
+        <v>49847.05</v>
       </c>
       <c r="AE2">
-        <v>734.4632795106374</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>51291.50327951064</v>
+        <v>49847.05</v>
       </c>
       <c r="AG2">
-        <v>20410.70327951064</v>
+        <v>2569.349999999991</v>
       </c>
       <c r="AH2">
-        <v>0.508729192316895</v>
+        <v>0.493194063313639</v>
       </c>
       <c r="AI2">
-        <v>0.4381469875829494</v>
+        <v>0.3857209791624832</v>
       </c>
       <c r="AJ2">
-        <v>0.2918232581635235</v>
+        <v>0.04776440428575529</v>
       </c>
       <c r="AK2">
-        <v>0.2368275998834121</v>
+        <v>0.03135144896809935</v>
       </c>
       <c r="AL2">
-        <v>2401.01</v>
+        <v>2221.326</v>
       </c>
       <c r="AM2">
-        <v>2401.01</v>
+        <v>2221.326</v>
       </c>
       <c r="AN2">
-        <v>9.995697802241255</v>
+        <v>2.036510232179991</v>
       </c>
       <c r="AO2">
-        <v>1.868497007509339</v>
+        <v>10.81250568354217</v>
       </c>
       <c r="AP2">
-        <v>4.035426558065956</v>
+        <v>0.1049712583804186</v>
       </c>
       <c r="AQ2">
-        <v>1.868497007509339</v>
+        <v>10.81250568354217</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cathay Financial Holding Co., Ltd. (TSEC:2882)</t>
+          <t>Farglory Life Insurance Co., Ltd. (GTSM:5859)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,37 +728,37 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0723</v>
+        <v>0.179</v>
       </c>
       <c r="E3">
-        <v>0.0164</v>
+        <v>-0.0579</v>
       </c>
       <c r="G3">
-        <v>0.03071869707286196</v>
+        <v>0.08829918878042074</v>
       </c>
       <c r="H3">
-        <v>0.03071869707286196</v>
+        <v>0.08829918878042074</v>
       </c>
       <c r="I3">
-        <v>0.05723601957121117</v>
+        <v>0.1593565241303451</v>
       </c>
       <c r="J3">
-        <v>0.04913276200646507</v>
+        <v>0.1120736092725372</v>
       </c>
       <c r="K3">
-        <v>1553.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="L3">
-        <v>0.05316408054334251</v>
+        <v>0.02587652963013887</v>
       </c>
       <c r="M3">
-        <v>1351.7</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.07136031760277479</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.8699317801518858</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -770,73 +770,76 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>1351.7</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>12620.6</v>
+        <v>275.2</v>
       </c>
       <c r="V3">
-        <v>0.6662795178941923</v>
+        <v>0.8070381231671554</v>
+      </c>
+      <c r="W3">
+        <v>0.1302061713020617</v>
       </c>
       <c r="X3">
-        <v>0.1061955984433422</v>
+        <v>0.06130309445028496</v>
+      </c>
+      <c r="Y3">
+        <v>0.06890307685177673</v>
       </c>
       <c r="Z3">
-        <v>157.5914723606132</v>
+        <v>11.25711986131748</v>
       </c>
       <c r="AA3">
-        <v>7.742904305742424</v>
+        <v>1.261626052871413</v>
       </c>
       <c r="AB3">
-        <v>0.07587235904650752</v>
+        <v>0.0604825158472326</v>
       </c>
       <c r="AC3">
-        <v>7.667031946695916</v>
+        <v>1.201143537024181</v>
       </c>
       <c r="AD3">
-        <v>12480.2</v>
+        <v>6.85</v>
       </c>
       <c r="AE3">
-        <v>185.4573700099815</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12665.65737000998</v>
+        <v>6.85</v>
       </c>
       <c r="AG3">
-        <v>45.05737000998124</v>
+        <v>-268.35</v>
       </c>
       <c r="AH3">
-        <v>0.4007161079149844</v>
+        <v>0.01969239614776484</v>
       </c>
       <c r="AI3">
-        <v>0.3495492467438555</v>
+        <v>0.007216223334211219</v>
       </c>
       <c r="AJ3">
-        <v>0.002373069530410893</v>
+        <v>-3.693737095664141</v>
       </c>
       <c r="AK3">
-        <v>0.001908106368444449</v>
+        <v>-0.3981158667754617</v>
       </c>
       <c r="AL3">
-        <v>764.9</v>
+        <v>0.116</v>
       </c>
       <c r="AM3">
-        <v>764.9</v>
+        <v>0.116</v>
       </c>
       <c r="AN3">
-        <v>6.662858363141317</v>
+        <v>0.01157876943881</v>
       </c>
       <c r="AO3">
-        <v>2.152307491175317</v>
+        <v>4995.689655172414</v>
       </c>
       <c r="AP3">
-        <v>0.02405497304467527</v>
+        <v>-0.4536004056795131</v>
       </c>
       <c r="AQ3">
-        <v>2.152307491175317</v>
+        <v>4995.689655172414</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mercuries &amp; Associates Holding, Ltd. (TSEC:2905)</t>
+          <t>China Life Insurance Co., Ltd. (TSEC:2823)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,46 +859,49 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0262</v>
+        <v>0.169</v>
       </c>
       <c r="E4">
-        <v>0.0791</v>
+        <v>0.0684</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
       </c>
       <c r="G4">
-        <v>-0.0544685172647258</v>
+        <v>0.09298196053109488</v>
       </c>
       <c r="H4">
-        <v>-0.0544685172647258</v>
+        <v>0.09298196053109488</v>
       </c>
       <c r="I4">
-        <v>0.003185296855326653</v>
+        <v>0.1850841438314702</v>
       </c>
       <c r="J4">
-        <v>0.003054606950497408</v>
+        <v>0.1793180737827448</v>
       </c>
       <c r="K4">
-        <v>78.3</v>
+        <v>534.9</v>
       </c>
       <c r="L4">
-        <v>0.01325321597833446</v>
+        <v>0.04317365511118285</v>
       </c>
       <c r="M4">
-        <v>12.5</v>
+        <v>92.5</v>
       </c>
       <c r="N4">
-        <v>0.022096517588828</v>
+        <v>0.02473989676107946</v>
       </c>
       <c r="O4">
-        <v>0.1596424010217114</v>
+        <v>0.1729295195363619</v>
       </c>
       <c r="P4">
-        <v>12.5</v>
+        <v>92.5</v>
       </c>
       <c r="Q4">
-        <v>0.022096517588828</v>
+        <v>0.02473989676107946</v>
       </c>
       <c r="R4">
-        <v>0.1596424010217114</v>
+        <v>0.1729295195363619</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +910,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1477.2</v>
+        <v>1994.4</v>
       </c>
       <c r="V4">
-        <v>2.611278062577338</v>
+        <v>0.5334189200032096</v>
       </c>
       <c r="W4">
-        <v>0.1663126593033135</v>
+        <v>0.1214715567162484</v>
       </c>
       <c r="X4">
-        <v>0.1407607870647574</v>
+        <v>0.0611048064254047</v>
       </c>
       <c r="Y4">
-        <v>0.02555187223855604</v>
+        <v>0.06036675029084373</v>
       </c>
       <c r="Z4">
-        <v>49.47811356218598</v>
+        <v>3.816498783230139</v>
       </c>
       <c r="AA4">
-        <v>0.1511361895845534</v>
+        <v>0.684367210403018</v>
       </c>
       <c r="AB4">
-        <v>0.07356252740994779</v>
+        <v>0.06048206153666184</v>
       </c>
       <c r="AC4">
-        <v>0.07757366217460557</v>
+        <v>0.6238851488663562</v>
       </c>
       <c r="AD4">
-        <v>677.2</v>
+        <v>57</v>
       </c>
       <c r="AE4">
-        <v>132.3063308936507</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>809.5063308936508</v>
+        <v>57</v>
       </c>
       <c r="AG4">
-        <v>-667.6936691063493</v>
+        <v>-1937.4</v>
       </c>
       <c r="AH4">
-        <v>0.588643545850759</v>
+        <v>0.01501620169129851</v>
       </c>
       <c r="AI4">
-        <v>0.3878606082072679</v>
+        <v>0.01075694955556814</v>
       </c>
       <c r="AJ4">
-        <v>6.546422684432916</v>
+        <v>-1.075437135720233</v>
       </c>
       <c r="AK4">
-        <v>-1.094747890431023</v>
+        <v>-0.5862914207898322</v>
       </c>
       <c r="AL4">
-        <v>4.32</v>
+        <v>1.71</v>
       </c>
       <c r="AM4">
-        <v>4.32</v>
+        <v>1.71</v>
       </c>
       <c r="AN4">
-        <v>7.995277449822905</v>
+        <v>0.02477937660305177</v>
       </c>
       <c r="AO4">
-        <v>0.5972222222222222</v>
+        <v>1340.994152046784</v>
       </c>
       <c r="AP4">
-        <v>-7.883042138209555</v>
+        <v>-0.8422379689605703</v>
       </c>
       <c r="AQ4">
-        <v>0.5972222222222222</v>
+        <v>1340.994152046784</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>China Life Insurance Co., Ltd. (TSEC:2823)</t>
+          <t>Shin Kong Financial Holding Co., Ltd. (TSEC:2888)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,121 +996,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.104</v>
+        <v>0.159</v>
       </c>
       <c r="E5">
-        <v>0.112</v>
+        <v>0.29</v>
       </c>
       <c r="F5">
         <v>0.15</v>
       </c>
       <c r="G5">
-        <v>-0.02582541213206594</v>
+        <v>0.1001635753694308</v>
       </c>
       <c r="H5">
-        <v>-0.02582541213206594</v>
+        <v>0.1001635753694308</v>
       </c>
       <c r="I5">
-        <v>0.0179865529248608</v>
+        <v>0.1881172197732124</v>
       </c>
       <c r="J5">
-        <v>0.01613709712985084</v>
+        <v>0.1881172197732124</v>
       </c>
       <c r="K5">
-        <v>406.6</v>
+        <v>487.7</v>
       </c>
       <c r="L5">
-        <v>0.037342149974744</v>
+        <v>0.02704261276996867</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>174.1</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.04273441335297005</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.3569817510764814</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>174.1</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.04273441335297005</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.3569817510764814</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>1228.9</v>
+        <v>6611.7</v>
       </c>
       <c r="V5">
-        <v>0.3217268371861665</v>
+        <v>1.622901325478645</v>
       </c>
       <c r="W5">
-        <v>0.1362691869428246</v>
+        <v>0.07931886933610903</v>
       </c>
       <c r="X5">
-        <v>0.07838937640893091</v>
+        <v>0.09934771009504788</v>
       </c>
       <c r="Y5">
-        <v>0.05787981053389367</v>
+        <v>-0.02002884075893885</v>
       </c>
       <c r="Z5">
-        <v>7.564520428150477</v>
+        <v>3.079293800262947</v>
       </c>
       <c r="AA5">
-        <v>0.1220694008898051</v>
+        <v>0.5792681885703553</v>
       </c>
       <c r="AB5">
-        <v>0.07567093785029834</v>
+        <v>0.06052791522399287</v>
       </c>
       <c r="AC5">
-        <v>0.04639846303950677</v>
+        <v>0.5187402733463624</v>
       </c>
       <c r="AD5">
-        <v>71.7</v>
+        <v>3867.3</v>
       </c>
       <c r="AE5">
-        <v>139.9170923882657</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>211.6170923882657</v>
+        <v>3867.3</v>
       </c>
       <c r="AG5">
-        <v>-1017.282907611734</v>
+        <v>-2744.4</v>
       </c>
       <c r="AH5">
-        <v>0.05249328880326252</v>
+        <v>0.48698575799932</v>
       </c>
       <c r="AI5">
-        <v>0.04585302781099245</v>
+        <v>0.3137310575331798</v>
       </c>
       <c r="AJ5">
-        <v>-0.363001963688706</v>
+        <v>-2.064079422382671</v>
       </c>
       <c r="AK5">
-        <v>-0.3004186913764157</v>
+        <v>-0.4802015712760931</v>
       </c>
       <c r="AL5">
-        <v>0.309</v>
+        <v>238</v>
       </c>
       <c r="AM5">
-        <v>0.309</v>
+        <v>238</v>
       </c>
       <c r="AN5">
-        <v>0.313470030166572</v>
+        <v>1.115653127163628</v>
       </c>
       <c r="AO5">
-        <v>712.6213592233009</v>
+        <v>14.25462184873949</v>
       </c>
       <c r="AP5">
-        <v>-4.447527248772502</v>
+        <v>-0.7917147472882529</v>
       </c>
       <c r="AQ5">
-        <v>712.6213592233009</v>
+        <v>14.25462184873949</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1124,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fubon Financial Holding Co., Ltd. (TSEC:2881)</t>
+          <t>Cathay Financial Holding Co., Ltd. (TSEC:2882)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1124,121 +1133,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0747</v>
+        <v>0.213</v>
       </c>
       <c r="E6">
-        <v>-0.0374</v>
+        <v>0.0667</v>
       </c>
       <c r="G6">
-        <v>0.06691289491435459</v>
+        <v>0.1244712554679467</v>
       </c>
       <c r="H6">
-        <v>0.06691289491435459</v>
+        <v>0.1244712554679467</v>
       </c>
       <c r="I6">
-        <v>0.09117080057354963</v>
+        <v>0.2148514038027282</v>
       </c>
       <c r="J6">
-        <v>0.07881501393883575</v>
+        <v>0.2031302695714649</v>
       </c>
       <c r="K6">
-        <v>1649</v>
+        <v>2587.9</v>
       </c>
       <c r="L6">
-        <v>0.06078299108344115</v>
+        <v>0.06443027543264311</v>
       </c>
       <c r="M6">
-        <v>1944.1</v>
+        <v>909.6</v>
       </c>
       <c r="N6">
-        <v>0.1224791940981169</v>
+        <v>0.04592640465322939</v>
       </c>
       <c r="O6">
-        <v>1.178956943602183</v>
+        <v>0.3514818965184126</v>
       </c>
       <c r="P6">
-        <v>658.7</v>
+        <v>909.6</v>
       </c>
       <c r="Q6">
-        <v>0.04149840293834146</v>
+        <v>0.04592640465322939</v>
       </c>
       <c r="R6">
-        <v>0.399454214675561</v>
+        <v>0.3514818965184126</v>
       </c>
       <c r="S6">
-        <v>1285.4</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.6611799804536803</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>7226.4</v>
+        <v>20163.9</v>
       </c>
       <c r="V6">
-        <v>0.4552665234456211</v>
+        <v>1.018090842993901</v>
       </c>
       <c r="W6">
-        <v>0.1000503588828822</v>
+        <v>0.1137383477416264</v>
       </c>
       <c r="X6">
-        <v>0.1350558680122063</v>
+        <v>0.0892893053305394</v>
       </c>
       <c r="Y6">
-        <v>-0.03500550912932412</v>
+        <v>0.02444904241108703</v>
       </c>
       <c r="Z6">
-        <v>0.9301367984365893</v>
+        <v>1.786397619672393</v>
       </c>
       <c r="AA6">
-        <v>0.07330874473380383</v>
+        <v>0.3628714300458765</v>
       </c>
       <c r="AB6">
-        <v>0.07587029074860617</v>
+        <v>0.06220580538621043</v>
       </c>
       <c r="AC6">
-        <v>-0.002561546014802338</v>
+        <v>0.3006656246596661</v>
       </c>
       <c r="AD6">
-        <v>20716.7</v>
+        <v>13935.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>20716.7</v>
+        <v>13935.3</v>
       </c>
       <c r="AG6">
-        <v>13490.3</v>
+        <v>-6228.600000000002</v>
       </c>
       <c r="AH6">
-        <v>0.566190939501935</v>
+        <v>0.4130091372784959</v>
       </c>
       <c r="AI6">
-        <v>0.5202351475824799</v>
+        <v>0.3285465047742544</v>
       </c>
       <c r="AJ6">
-        <v>0.4594288088491718</v>
+        <v>-0.4587611401635121</v>
       </c>
       <c r="AK6">
-        <v>0.413871282450898</v>
+        <v>-0.279923239749945</v>
       </c>
       <c r="AL6">
-        <v>1375.9</v>
+        <v>677.4</v>
       </c>
       <c r="AM6">
-        <v>1375.9</v>
+        <v>677.4</v>
       </c>
       <c r="AN6">
-        <v>7.977780345040049</v>
+        <v>1.582657580919932</v>
       </c>
       <c r="AO6">
-        <v>1.79765971364198</v>
+        <v>12.739444936522</v>
       </c>
       <c r="AP6">
-        <v>5.194970733210105</v>
+        <v>-0.7073935264054517</v>
       </c>
       <c r="AQ6">
-        <v>1.79765971364198</v>
+        <v>12.739444936522</v>
       </c>
     </row>
     <row r="7">
@@ -1249,7 +1258,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shin Kong Financial Holding Co., Ltd. (TSEC:2888)</t>
+          <t>Fubon Financial Holding Co., Ltd. (TSEC:2881)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1258,49 +1267,49 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0916</v>
+        <v>0.103</v>
       </c>
       <c r="E7">
-        <v>0.111</v>
+        <v>0.0241</v>
       </c>
       <c r="F7">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>-0.03099510603588907</v>
+        <v>0.1417598444336412</v>
       </c>
       <c r="H7">
-        <v>-0.03099510603588907</v>
+        <v>0.1417598444336412</v>
       </c>
       <c r="I7">
-        <v>0.01660298309052849</v>
+        <v>0.2202236266407389</v>
       </c>
       <c r="J7">
-        <v>0.0124975321986286</v>
+        <v>0.2025705413146672</v>
       </c>
       <c r="K7">
-        <v>322</v>
+        <v>2521.1</v>
       </c>
       <c r="L7">
-        <v>0.02376857381175585</v>
+        <v>0.07907224740069314</v>
       </c>
       <c r="M7">
-        <v>197.1</v>
+        <v>706.9</v>
       </c>
       <c r="N7">
-        <v>0.04506688007316794</v>
+        <v>0.04150934532792323</v>
       </c>
       <c r="O7">
-        <v>0.612111801242236</v>
+        <v>0.2803934790369284</v>
       </c>
       <c r="P7">
-        <v>197.1</v>
+        <v>706.9</v>
       </c>
       <c r="Q7">
-        <v>0.04506688007316794</v>
+        <v>0.04150934532792323</v>
       </c>
       <c r="R7">
-        <v>0.612111801242236</v>
+        <v>0.2803934790369284</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1309,73 +1318,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>4519.6</v>
+        <v>10014</v>
       </c>
       <c r="V7">
-        <v>1.033405739110552</v>
+        <v>0.5880245920410572</v>
       </c>
       <c r="W7">
-        <v>0.06072263709738251</v>
+        <v>0.1376386705101328</v>
       </c>
       <c r="X7">
-        <v>0.1224962375396503</v>
+        <v>0.1030244053549712</v>
       </c>
       <c r="Y7">
-        <v>-0.06177360044226783</v>
+        <v>0.03461426515516162</v>
       </c>
       <c r="Z7">
-        <v>1.857659295979793</v>
+        <v>1.005687123066441</v>
       </c>
       <c r="AA7">
-        <v>0.02321615686558919</v>
+        <v>0.2037225849127593</v>
       </c>
       <c r="AB7">
-        <v>0.07388381455530013</v>
+        <v>0.06260918886377165</v>
       </c>
       <c r="AC7">
-        <v>-0.05066765768971095</v>
+        <v>0.1411133960489877</v>
       </c>
       <c r="AD7">
-        <v>4278.8</v>
+        <v>17695.1</v>
       </c>
       <c r="AE7">
-        <v>217.8720358884171</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>4496.672035888418</v>
+        <v>17695.1</v>
       </c>
       <c r="AG7">
-        <v>-22.9279641115827</v>
+        <v>7681.099999999999</v>
       </c>
       <c r="AH7">
-        <v>0.5069430466168</v>
+        <v>0.5095781137508999</v>
       </c>
       <c r="AI7">
-        <v>0.4209629193067213</v>
+        <v>0.4325764002121922</v>
       </c>
       <c r="AJ7">
-        <v>-0.005270103315712745</v>
+        <v>0.3108372789445995</v>
       </c>
       <c r="AK7">
-        <v>-0.003720699764316257</v>
+        <v>0.2486412471716253</v>
       </c>
       <c r="AL7">
-        <v>245.7</v>
+        <v>1289.1</v>
       </c>
       <c r="AM7">
-        <v>245.7</v>
+        <v>1289.1</v>
       </c>
       <c r="AN7">
-        <v>13.06503816793893</v>
+        <v>2.47515071827223</v>
       </c>
       <c r="AO7">
-        <v>1.019129019129019</v>
+        <v>5.446823365138469</v>
       </c>
       <c r="AP7">
-        <v>-0.07000905072238992</v>
+        <v>1.074414961323803</v>
       </c>
       <c r="AQ7">
-        <v>1.019129019129019</v>
+        <v>5.446823365138469</v>
       </c>
     </row>
     <row r="8">
@@ -1395,10 +1404,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.5600000000000001</v>
+        <v>0.492</v>
       </c>
       <c r="E8">
-        <v>0.00044</v>
+        <v>0.0424</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1407,34 +1416,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007768749337775362</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0006948595951703478</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>321.3</v>
+        <v>378.8</v>
       </c>
       <c r="L8">
-        <v>0.03990659893433358</v>
+        <v>0.04898677046827111</v>
       </c>
       <c r="M8">
-        <v>140.5</v>
+        <v>302.6</v>
       </c>
       <c r="N8">
-        <v>0.02968017237737124</v>
+        <v>0.06259308290584148</v>
       </c>
       <c r="O8">
-        <v>0.4372860255213196</v>
+        <v>0.7988384371700106</v>
       </c>
       <c r="P8">
-        <v>140.5</v>
+        <v>302.6</v>
       </c>
       <c r="Q8">
-        <v>0.02968017237737124</v>
+        <v>0.06259308290584148</v>
       </c>
       <c r="R8">
-        <v>0.4372860255213196</v>
+        <v>0.7988384371700106</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1443,67 +1452,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1972.9</v>
+        <v>3072.9</v>
       </c>
       <c r="V8">
-        <v>0.4167687692762685</v>
+        <v>0.6356321363561146</v>
       </c>
       <c r="W8">
-        <v>0.0592410944759938</v>
+        <v>0.06364461171410329</v>
       </c>
       <c r="X8">
-        <v>0.1917619861918998</v>
+        <v>0.1729347955810919</v>
       </c>
       <c r="Y8">
-        <v>-0.132520891715906</v>
+        <v>-0.1092901838669886</v>
       </c>
       <c r="Z8">
-        <v>0.5262691490096953</v>
+        <v>0.4848786972416085</v>
       </c>
       <c r="AA8">
-        <v>0.0003656831678315204</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.07937597634697438</v>
+        <v>0.06712026191257058</v>
       </c>
       <c r="AC8">
-        <v>-0.07901029317914286</v>
+        <v>-0.06712026191257058</v>
       </c>
       <c r="AD8">
-        <v>12077.4</v>
+        <v>13277.7</v>
       </c>
       <c r="AE8">
-        <v>21.22573422838461</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>12098.62573422838</v>
+        <v>13277.7</v>
       </c>
       <c r="AG8">
-        <v>10125.72573422838</v>
+        <v>10204.8</v>
       </c>
       <c r="AH8">
-        <v>0.718768995346053</v>
+        <v>0.7330845125634246</v>
       </c>
       <c r="AI8">
-        <v>0.5641614347185248</v>
+        <v>0.5645784700164556</v>
       </c>
       <c r="AJ8">
-        <v>0.6814299403179563</v>
+        <v>0.6785467312091069</v>
       </c>
       <c r="AK8">
-        <v>0.5200033047977947</v>
+        <v>0.4991342626559062</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>1150.228571428571</v>
-      </c>
-      <c r="AP8">
-        <v>964.3548318312747</v>
       </c>
     </row>
     <row r="9">
@@ -1514,7 +1517,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Farglory Life Insurance Co., Ltd. (GTSM:5859)</t>
+          <t>Mercuries &amp; Associates Holding, Ltd. (TSEC:2905)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1523,118 +1526,121 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.112</v>
+        <v>0.0517</v>
       </c>
       <c r="E9">
-        <v>-0.366</v>
+        <v>-0.0559</v>
       </c>
       <c r="G9">
-        <v>-0.05395476156173462</v>
+        <v>0.09079056204348863</v>
       </c>
       <c r="H9">
-        <v>-0.05395476156173462</v>
+        <v>0.09079056204348863</v>
       </c>
       <c r="I9">
-        <v>-0.01624684917891255</v>
+        <v>0.1510886175328408</v>
       </c>
       <c r="J9">
-        <v>-0.008123424589456276</v>
+        <v>0.1510886175328408</v>
       </c>
       <c r="K9">
-        <v>15.7</v>
+        <v>54</v>
       </c>
       <c r="L9">
-        <v>0.005654804783172453</v>
+        <v>0.007570553351371813</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>39.1</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.06193568826231587</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>0.7240740740740741</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>39.1</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.06193568826231587</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.7240740740740741</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>406.3</v>
+        <v>2598.7</v>
       </c>
       <c r="V9">
-        <v>1.336513157894737</v>
+        <v>4.116426421669571</v>
       </c>
       <c r="W9">
-        <v>0.02647108413421008</v>
+        <v>0.1041465766634523</v>
       </c>
       <c r="X9">
-        <v>0.07728367638658885</v>
+        <v>0.1084361706594747</v>
       </c>
       <c r="Y9">
-        <v>-0.05081259225237877</v>
+        <v>-0.004289593996022398</v>
       </c>
       <c r="Z9">
-        <v>8.744876503224823</v>
+        <v>-25.33889875666074</v>
       </c>
       <c r="AA9">
-        <v>-0.07103834481805493</v>
+        <v>-3.82841918294849</v>
       </c>
       <c r="AB9">
-        <v>0.0757590677615468</v>
+        <v>0.0605330106209385</v>
       </c>
       <c r="AC9">
-        <v>-0.1467974125796017</v>
+        <v>-3.888952193569429</v>
       </c>
       <c r="AD9">
-        <v>6.64</v>
+        <v>739.4</v>
       </c>
       <c r="AE9">
-        <v>2.788760301664014</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>9.428760301664013</v>
+        <v>739.4</v>
       </c>
       <c r="AG9">
-        <v>-396.871239698336</v>
+        <v>-1859.3</v>
       </c>
       <c r="AH9">
-        <v>0.03008262640795684</v>
+        <v>0.5394324067994456</v>
       </c>
       <c r="AI9">
-        <v>0.01287855472004544</v>
+        <v>0.3318969386839034</v>
       </c>
       <c r="AJ9">
-        <v>4.273349219709477</v>
+        <v>1.514087947882736</v>
       </c>
       <c r="AK9">
-        <v>-1.218036244961612</v>
+        <v>5.012941493664065</v>
       </c>
       <c r="AL9">
-        <v>0.061</v>
+        <v>4.3</v>
       </c>
       <c r="AM9">
-        <v>0.061</v>
+        <v>4.3</v>
       </c>
       <c r="AN9">
-        <v>-0.2046224961479199</v>
+        <v>0.658121940364931</v>
       </c>
       <c r="AO9">
-        <v>-755.7377049180328</v>
+        <v>250.6279069767442</v>
       </c>
       <c r="AP9">
-        <v>12.23023851150496</v>
+        <v>-1.65491766800178</v>
       </c>
       <c r="AQ9">
-        <v>-755.7377049180328</v>
+        <v>250.6279069767442</v>
       </c>
     </row>
     <row r="10">
@@ -1654,28 +1660,28 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0105</v>
+        <v>0.0509</v>
       </c>
       <c r="E10">
-        <v>0.0356</v>
+        <v>-0.0882</v>
       </c>
       <c r="G10">
-        <v>-0.07636378163513972</v>
+        <v>0.09161450182576944</v>
       </c>
       <c r="H10">
-        <v>-0.07636378163513972</v>
+        <v>0.09161450182576944</v>
       </c>
       <c r="I10">
-        <v>-0.01068237843518262</v>
+        <v>0.1669274908711529</v>
       </c>
       <c r="J10">
-        <v>-0.01068237843518262</v>
+        <v>0.1669274908711529</v>
       </c>
       <c r="K10">
-        <v>89.90000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="L10">
-        <v>0.0179573737091265</v>
+        <v>0.01475286906624935</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1699,73 +1705,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1428.9</v>
+        <v>2546.9</v>
       </c>
       <c r="V10">
-        <v>1.553489889106328</v>
+        <v>3.317571968216751</v>
       </c>
       <c r="W10">
-        <v>0.08526176024279211</v>
+        <v>0.07776918449772277</v>
       </c>
       <c r="X10">
-        <v>0.08984255056976792</v>
+        <v>0.07479543787848406</v>
       </c>
       <c r="Y10">
-        <v>-0.004580790326975809</v>
+        <v>0.002973746619238715</v>
       </c>
       <c r="Z10">
-        <v>14.75496514007067</v>
+        <v>-365.1428571428581</v>
       </c>
       <c r="AA10">
-        <v>-0.1576181214241623</v>
+        <v>-60.95238095238112</v>
       </c>
       <c r="AB10">
-        <v>0.07495137243948032</v>
+        <v>0.06050577021422322</v>
       </c>
       <c r="AC10">
-        <v>-0.2325694938636426</v>
+        <v>-61.01288672259534</v>
       </c>
       <c r="AD10">
-        <v>248.4</v>
+        <v>268.4</v>
       </c>
       <c r="AE10">
-        <v>34.89595580027388</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>283.2959558002739</v>
+        <v>268.4</v>
       </c>
       <c r="AG10">
-        <v>-1145.604044199726</v>
+        <v>-2278.5</v>
       </c>
       <c r="AH10">
-        <v>0.2354724529115647</v>
+        <v>0.2590483544059454</v>
       </c>
       <c r="AI10">
-        <v>0.1957821337818422</v>
+        <v>0.1689218956510793</v>
       </c>
       <c r="AJ10">
-        <v>5.07344342861471</v>
+        <v>1.508141382049246</v>
       </c>
       <c r="AK10">
-        <v>-63.30718624889566</v>
+        <v>2.37839248434238</v>
       </c>
       <c r="AL10">
-        <v>9.82</v>
+        <v>10.7</v>
       </c>
       <c r="AM10">
-        <v>9.82</v>
+        <v>10.7</v>
       </c>
       <c r="AN10">
-        <v>-8.012903225806452</v>
+        <v>0.2578785549577248</v>
       </c>
       <c r="AO10">
-        <v>-6.160896130346232</v>
+        <v>95.70093457943926</v>
       </c>
       <c r="AP10">
-        <v>36.9549691677331</v>
+        <v>-2.189181398923905</v>
       </c>
       <c r="AQ10">
-        <v>-6.160896130346232</v>
+        <v>95.70093457943926</v>
       </c>
     </row>
   </sheetData>
